--- a/Test Data/FC_Gallery_PanelNode_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelNode_Repeaters_FC600_Series_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B29E0A-7C1E-489B-BCE6-6C1A8DBA42C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECE1F84-33CC-467C-AB6B-817C59471807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_PanelNode_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelNode_Repeaters_FC600_Series_Panels.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECE1F84-33CC-467C-AB6B-817C59471807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D209E1-413A-4E02-835A-92CA77A07DD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="22" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="23" r:id="rId4"/>
+    <sheet name="Norway" sheetId="24" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -85,6 +88,24 @@
   </si>
   <si>
     <t>NGC-3445/T1650/T2140</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2004</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2025</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1919</t>
   </si>
 </sst>
 </file>
@@ -508,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E633250-93FC-4A95-8297-DC7F9D0A64D2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -724,4 +745,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1C1234-1C5D-4AAC-814E-79A54D4C34E0}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70EE58C-7A44-46D8-A7F0-BD22E515BA51}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC08037-DE7F-46EF-BC09-F336E8616F34}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_PanelNode_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelNode_Repeaters_FC600_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D209E1-413A-4E02-835A-92CA77A07DD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919D9D5A-E532-478D-9664-4EC794B30409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Denmark" sheetId="22" r:id="rId3"/>
     <sheet name="Sweden" sheetId="23" r:id="rId4"/>
     <sheet name="Norway" sheetId="24" r:id="rId5"/>
+    <sheet name="Italy" sheetId="26" r:id="rId6"/>
+    <sheet name="Spain" sheetId="25" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -106,6 +108,18 @@
   </si>
   <si>
     <t>NGC-3464/T1919</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2128</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1967</t>
   </si>
 </sst>
 </file>
@@ -975,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC08037-DE7F-46EF-BC09-F336E8616F34}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1081,4 +1095,228 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071950C8-E5ED-4A5B-9AFB-8615C7B4F4EF}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F0F66-5D29-4811-8EA0-27C03B5D26DF}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_PanelNode_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelNode_Repeaters_FC600_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919D9D5A-E532-478D-9664-4EC794B30409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2DB49B-21BC-4A28-93AA-FD4F7D160D57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071950C8-E5ED-4A5B-9AFB-8615C7B4F4EF}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F0F66-5D29-4811-8EA0-27C03B5D26DF}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/FC_Gallery_PanelNode_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelNode_Repeaters_FC600_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2DB49B-21BC-4A28-93AA-FD4F7D160D57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6E006D-0EC9-4243-928F-6330081F323A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>NGC-3443/T1967</t>
+  </si>
+  <si>
+    <t>NGC-3003/T3834</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E633250-93FC-4A95-8297-DC7F9D0A64D2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +592,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1213,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F0F66-5D29-4811-8EA0-27C03B5D26DF}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
